--- a/data/output/FV2404_FV2310/COMDIS/29002.xlsx
+++ b/data/output/FV2404_FV2310/COMDIS/29002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="151">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="151">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -586,6 +586,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U56" totalsRowShown="0">
+  <autoFilter ref="A1:U56"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,7 +905,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3432,5 +3465,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/COMDIS/29002.xlsx
+++ b/data/output/FV2404_FV2310/COMDIS/29002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="207">
   <si>
     <t>#</t>
   </si>
@@ -3381,44 +3381,42 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M47" s="5" t="s">
+      <c r="K47" s="2"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="V47" s="5"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="5" t="s">
@@ -3442,9 +3440,7 @@
         <v>131</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
@@ -3490,9 +3486,7 @@
         <v>132</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>31</v>
       </c>
@@ -3650,9 +3644,7 @@
         <v>132</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -3704,9 +3696,7 @@
         <v>132</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -3731,44 +3721,42 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5" t="s">
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="V54" s="5"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -3794,9 +3782,7 @@
         <v>132</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>33</v>
       </c>
@@ -3842,9 +3828,7 @@
         <v>132</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>33</v>
       </c>

--- a/data/output/FV2404_FV2310/COMDIS/29002.xlsx
+++ b/data/output/FV2404_FV2310/COMDIS/29002.xlsx
@@ -1209,7 +1209,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="2"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -3569,24 +3569,24 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -3595,21 +3595,21 @@
       <c r="L51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>131</v>
       </c>
       <c r="V51" s="6" t="s">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2"/>
